--- a/src/UM5MES02.xlsx
+++ b/src/UM5MES02.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maurini/Cloud/drop-su/Enseignement/master/fichesUE/UE-test/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maurini/Cloud/drop-su/Enseignement/master/fichesUE/master-mecanique/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAB29FA4-DA37-DB45-B9DF-5B6F84433A57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A41A54C-E107-5340-82FF-A41F43CF660E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{946D5765-8A67-8240-B7B5-AEFFB1FB0322}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{946D5765-8A67-8240-B7B5-AEFFB1FB0322}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
   <si>
     <t>Code UE</t>
   </si>
@@ -128,9 +128,6 @@
   </si>
   <si>
     <t>Rupture; propagation des fissures; Critére de Griffith; critére de Irwin; adoucissement/écrouissage structurel; évolution quasi-statique; approche variationnel; taux de réstitution de l'énergie; singularités</t>
-  </si>
-  <si>
-    <t>Rappel de l'élasticité linéaire et de sa formulation variationnelle; critères en contraintes et défauts en élasticité linéaire ; singularités ; modes de rupture ; ténacité à la rupture ; critère d'Irwin ; approche énergétique (variationnelle) de la rupture; théorie de Griffith ; calcul numérique du taux de restitution d'énergie ; méthode G-theta (dérivée de domaine) ; formule d'Irwin ; propagation des fissures; fatigue; dimensionnement à fatigue</t>
   </si>
   <si>
     <t>- J.J. Marigo, Plasticité et Rupture, cours de l’Ecole Polytechnique (in French), Edition 2016
@@ -285,6 +282,15 @@
   </si>
   <si>
     <t>Keywords (En)</t>
+  </si>
+  <si>
+    <t>Rappel de l'élasticité linéaire et de sa formulation variationnelle; critères en contraintes et défauts en élasticité linéaire ; singularités ; modes de rupture ; ténacité ; critère d'Irwin ; approche énergétique (variationnelle) de la rupture; théorie de Griffith ; calcul numérique du taux de restitution d'énergie ; méthode G-theta (dérivée par rapport au domaine) ; formule d'Irwin ; propagation des fissures; fatigue; dimensionnement à fatigue</t>
+  </si>
+  <si>
+    <t>image</t>
+  </si>
+  <si>
+    <t>Nom de fichier pour une image</t>
   </si>
 </sst>
 </file>
@@ -353,69 +359,56 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -731,335 +724,337 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59EE972D-CC80-CB4D-81F7-9FC0AA1100CF}">
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="116" zoomScaleNormal="116" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="116" zoomScaleNormal="116" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.1640625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="33" style="4" customWidth="1"/>
-    <col min="3" max="3" width="160" style="8" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="16.1640625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="33" style="3" customWidth="1"/>
+    <col min="3" max="3" width="160" style="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="C1" s="8" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="11">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="47" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="4"/>
+    </row>
+    <row r="21" spans="1:7" ht="91" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="1:7" ht="91" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+    </row>
+    <row r="25" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="55" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="125" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B29" s="17" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="B2" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="B3" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="16">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" s="11" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" s="14" t="s">
+      <c r="C29" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" s="5" customFormat="1" ht="56" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="282" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B31" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="19"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="14"/>
-    </row>
-    <row r="19" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="47" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="5"/>
-    </row>
-    <row r="21" spans="1:7" ht="91" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B21" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-    </row>
-    <row r="22" spans="1:7" ht="91" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B22" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="B23" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="B24" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-    </row>
-    <row r="25" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="B25" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="B26" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="55" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="125" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B29" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" s="6" customFormat="1" ht="56" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="B30" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="C30" s="17" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="282" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="B31" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="C31" s="18" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>36</v>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B33" s="18" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/src/UM5MES02.xlsx
+++ b/src/UM5MES02.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maurini/Cloud/drop-su/Enseignement/master/fichesUE/master-mecanique/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A41A54C-E107-5340-82FF-A41F43CF660E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{131CD438-1B3D-654F-8E75-594342FE2972}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{946D5765-8A67-8240-B7B5-AEFFB1FB0322}"/>
   </bookViews>
@@ -726,8 +726,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59EE972D-CC80-CB4D-81F7-9FC0AA1100CF}">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="116" zoomScaleNormal="116" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView tabSelected="1" zoomScale="116" zoomScaleNormal="116" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21:C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/src/UM5MES02.xlsx
+++ b/src/UM5MES02.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maurini/Cloud/drop-su/Enseignement/master/fichesUE/master-mecanique/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{131CD438-1B3D-654F-8E75-594342FE2972}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E77A55CB-00AB-9E40-BF42-92BE07C24C01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{946D5765-8A67-8240-B7B5-AEFFB1FB0322}"/>
+    <workbookView xWindow="11560" yWindow="2860" windowWidth="38400" windowHeight="21100" xr2:uid="{946D5765-8A67-8240-B7B5-AEFFB1FB0322}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
   <si>
     <t>Code UE</t>
   </si>
@@ -291,6 +291,9 @@
   </si>
   <si>
     <t>Nom de fichier pour une image</t>
+  </si>
+  <si>
+    <t>UM5MES02-fig.pdf</t>
   </si>
 </sst>
 </file>
@@ -726,8 +729,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59EE972D-CC80-CB4D-81F7-9FC0AA1100CF}">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="116" zoomScaleNormal="116" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21:C22"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="116" zoomScaleNormal="116" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1049,12 +1052,15 @@
         <v>35</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>76</v>
       </c>
       <c r="B33" s="18" t="s">
         <v>77</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/src/UM5MES02.xlsx
+++ b/src/UM5MES02.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maurini/Cloud/drop-su/Enseignement/master/fichesUE/master-mecanique/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E77A55CB-00AB-9E40-BF42-92BE07C24C01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A695D97-71DC-B345-893E-B08BF096600A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11560" yWindow="2860" windowWidth="38400" windowHeight="21100" xr2:uid="{946D5765-8A67-8240-B7B5-AEFFB1FB0322}"/>
   </bookViews>
@@ -293,7 +293,7 @@
     <t>Nom de fichier pour une image</t>
   </si>
   <si>
-    <t>UM5MES02-fig.pdf</t>
+    <t>UM5MES02-fig.png</t>
   </si>
 </sst>
 </file>
@@ -730,7 +730,7 @@
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" zoomScale="116" zoomScaleNormal="116" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
